--- a/log.xlsx
+++ b/log.xlsx
@@ -1393,13 +1393,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C880"/>
+  <dimension ref="A1:C886"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="25" customWidth="1" style="1" min="1" max="3"/>
     <col width="25" customWidth="1" style="1" min="2" max="2"/>
@@ -12850,6 +12850,84 @@
         <v>23003.45846582616</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Tue, 10 Aug 2021 17:50:03</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>180690689.3528</v>
+      </c>
+      <c r="C881" t="n">
+        <v>23001.92475461144</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Tue, 10 Aug 2021 17:54:35</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>180339751.5348</v>
+      </c>
+      <c r="C882" t="n">
+        <v>22957.25037038004</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Tue, 10 Aug 2021 17:57:28</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>180385446.7696</v>
+      </c>
+      <c r="C883" t="n">
+        <v>22963.06737377008</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Tue, 10 Aug 2021 18:09:38</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>179753084.96</v>
+      </c>
+      <c r="C884" t="n">
+        <v>22882.567715408</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Tue, 10 Aug 2021 18:10:25</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>179908995.6744</v>
+      </c>
+      <c r="C885" t="n">
+        <v>22902.41514935112</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Tue, 10 Aug 2021 18:11:46</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>179880342.0276</v>
+      </c>
+      <c r="C886" t="n">
+        <v>22898.76754011348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
